--- a/scenarios/1/scenario 1.xlsx
+++ b/scenarios/1/scenario 1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="units" sheetId="1" r:id="rId1"/>
     <sheet name="traits" sheetId="2" r:id="rId2"/>
     <sheet name="Resources" sheetId="3" r:id="rId3"/>
+    <sheet name="Buildings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>Peasants</t>
   </si>
@@ -331,6 +332,54 @@
   </si>
   <si>
     <t>1/1/1/1/1/1/1/1/1/1</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>PreReq/Qty</t>
+  </si>
+  <si>
+    <t>Required Rsc/Amt</t>
+  </si>
+  <si>
+    <t>Qty Limit</t>
+  </si>
+  <si>
+    <t># Training Slots</t>
+  </si>
+  <si>
+    <t>Cultures</t>
+  </si>
+  <si>
+    <t>Energy Regen rate</t>
+  </si>
+  <si>
+    <t>Chief's Hall</t>
+  </si>
+  <si>
+    <t>1/1000/2/2000/3/3000</t>
+  </si>
+  <si>
+    <t>Desc.</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Renown/Hour</t>
+  </si>
+  <si>
+    <t>Warrior's hall</t>
+  </si>
+  <si>
+    <t>5.1/5.2/5.3</t>
   </si>
 </sst>
 </file>
@@ -366,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -378,6 +427,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1843,4 +1898,289 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>4167</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>4167</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>4167</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>750</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4167</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>